--- a/Meetings/Create Event Session Setup/Main.rvl.xlsx
+++ b/Meetings/Create Event Session Setup/Main.rvl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="177">
   <si>
     <t>Flow</t>
   </si>
@@ -498,6 +498,54 @@
   </si>
   <si>
     <t>Meeting_Name</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\MeetingData.xlsx</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Registration Setup from the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Registration Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Registration Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Registration Setup.</t>
+  </si>
+  <si>
+    <t>*******TUXr Meeting must already be created before running this test.</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Session Setup from the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Session Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Session Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Session Setup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session: </t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>Session not found. Create Session setup for testing.</t>
   </si>
 </sst>
 </file>
@@ -518,7 +566,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2148">
+  <borders count="2163">
     <border>
       <left/>
       <right/>
@@ -2673,11 +2721,26 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2148">
+  <cellXfs count="2163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -4826,6 +4889,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2145" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2146" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2147" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2148" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2149" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2150" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2151" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2152" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2153" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2154" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2155" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2156" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2157" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2158" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2159" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2160" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2161" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2162" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4835,7 +4913,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H102"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -4902,197 +4980,208 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2033" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2157"/>
     </row>
     <row r="5">
-      <c r="A5" s="186" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="2156"/>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2033" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="186" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="185"/>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="184"/>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="183"/>
+      <c r="A8" s="185"/>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="182"/>
+      <c r="A9" s="184"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="181"/>
+      <c r="A10" s="183"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="182"/>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="180" t="s">
+    <row r="12">
+      <c r="A12" s="181"/>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="179"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="178" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="177"/>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
+      <c r="A14" s="2153"/>
     </row>
     <row r="15">
-      <c r="A15" s="248"/>
+      <c r="A15" s="2152"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="247" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="2151"/>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="246"/>
+      <c r="A17" s="2150"/>
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -5109,95 +5198,79 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="245"/>
+      <c r="A18" s="2149"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="244"/>
+      <c r="A19" s="2148"/>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="243"/>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>149</v>
-      </c>
+      <c r="A20" s="179"/>
     </row>
     <row r="21">
-      <c r="A21" s="242"/>
+      <c r="A21" s="178" t="s">
+        <v>34</v>
+      </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="241"/>
+      <c r="A22" s="177"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -5205,361 +5278,376 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="240"/>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>150</v>
-      </c>
+      <c r="A23" s="248"/>
     </row>
     <row r="24">
-      <c r="A24" s="239"/>
+      <c r="A24" s="247" t="s">
+        <v>34</v>
+      </c>
       <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="238"/>
+      <c r="A25" s="246"/>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="176"/>
+      <c r="A26" s="245"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="175" t="s">
-        <v>34</v>
-      </c>
+      <c r="A27" s="244"/>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="174" t="s">
-        <v>44</v>
-      </c>
+      <c r="A28" s="243"/>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="173" t="s">
-        <v>34</v>
-      </c>
+      <c r="A29" s="242"/>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="241"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="202" t="s">
-        <v>34</v>
-      </c>
+      <c r="A31" s="240"/>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="201"/>
+      <c r="A32" s="239"/>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="238"/>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="176"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="175" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="174" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="173" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="202" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="201"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2147"/>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="41">
+      <c r="A41" s="2154"/>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2155"/>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2147"/>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D43" t="s">
         <v>39</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E43" t="s">
         <v>40</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F43" t="s">
         <v>41</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G43" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="200"/>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="44">
+      <c r="A44" s="200"/>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>66</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D44" t="s">
         <v>67</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E44" t="s">
         <v>68</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="199"/>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="198"/>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="197"/>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="196"/>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="195"/>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="194" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="193"/>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="207" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="206"/>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" t="s">
-        <v>57</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="205"/>
+      <c r="A45" s="199"/>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="204"/>
+      <c r="A46" s="198"/>
       <c r="B46" t="s">
         <v>3</v>
       </c>
@@ -5567,236 +5655,193 @@
         <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="197"/>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="196"/>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
         <v>13</v>
       </c>
-      <c r="G46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="203"/>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="32"/>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="208"/>
+      <c r="A49" s="195"/>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="194" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="193"/>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="206"/>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2160"/>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2159"/>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" t="s">
         <v>19</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="33"/>
-      <c r="B50" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="35" t="s">
+    <row r="57">
+      <c r="A57" s="205"/>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="209"/>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H52" s="48"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2054"/>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="56"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="211"/>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="215"/>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2051" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>101</v>
-      </c>
-      <c r="H57" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="213"/>
+      <c r="A58" s="204"/>
       <c r="B58" t="s">
         <v>3</v>
       </c>
@@ -5804,144 +5849,137 @@
         <v>66</v>
       </c>
       <c r="D58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="203"/>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E60" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F60" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2053"/>
-      <c r="B59" t="s">
+      <c r="G60" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="32"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="208"/>
+      <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" t="s">
         <v>73</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F61" t="s">
         <v>19</v>
       </c>
-      <c r="G59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="57"/>
-      <c r="B60" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="62" t="s">
+      <c r="G61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="40"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="209"/>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="64"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="65"/>
-      <c r="B61" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="D61" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="H61" s="72"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="73"/>
-      <c r="B62" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="F62" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="H62" s="80"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="81"/>
-      <c r="B63" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="F63" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="88"/>
+      <c r="G63" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="219"/>
-      <c r="B64" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="A64" s="41"/>
+      <c r="B64" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G64" t="s">
-        <v>119</v>
-      </c>
+      <c r="G64" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" s="48"/>
     </row>
     <row r="65">
-      <c r="A65" s="220"/>
+      <c r="A65" s="2054"/>
       <c r="B65" t="s">
         <v>11</v>
       </c>
@@ -5952,32 +5990,33 @@
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="218"/>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="A66" s="49"/>
+      <c r="B66" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="G66" t="s">
-        <v>121</v>
-      </c>
+      <c r="G66" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="56"/>
     </row>
     <row r="67">
-      <c r="A67" s="221"/>
+      <c r="A67" s="211"/>
       <c r="B67" t="s">
         <v>11</v>
       </c>
@@ -5988,11 +6027,11 @@
         <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2146"/>
+      <c r="A68" s="215"/>
       <c r="B68" t="s">
         <v>3</v>
       </c>
@@ -6000,7 +6039,7 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
         <v>92</v>
@@ -6009,14 +6048,22 @@
         <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2145"/>
+      <c r="A69" s="2051" t="s">
+        <v>7</v>
+      </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
       <c r="E69" t="s">
         <v>73</v>
       </c>
@@ -6024,11 +6071,14 @@
         <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="235"/>
+      <c r="A70" s="213"/>
       <c r="B70" t="s">
         <v>3</v>
       </c>
@@ -6036,291 +6086,315 @@
         <v>66</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="234"/>
+      <c r="A71" s="2053"/>
       <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="57"/>
+      <c r="B72" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="64"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="65"/>
+      <c r="B73" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="72"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="73"/>
+      <c r="B74" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="H74" s="80"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="81"/>
+      <c r="B75" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="H75" s="88"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="219"/>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>66</v>
       </c>
-      <c r="D71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="233"/>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="232"/>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="231"/>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74" t="s">
-        <v>73</v>
-      </c>
-      <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="237"/>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" t="s">
         <v>41</v>
       </c>
-      <c r="G75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="230"/>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" t="s">
-        <v>19</v>
-      </c>
       <c r="G76" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="229"/>
+      <c r="A77" s="220"/>
       <c r="B77" t="s">
         <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="228"/>
+      <c r="A78" s="218"/>
       <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="221"/>
+      <c r="B79" t="s">
         <v>11</v>
       </c>
-      <c r="E78" t="s">
-        <v>79</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="227"/>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
-        <v>39</v>
-      </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2146"/>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" t="s">
         <v>41</v>
       </c>
-      <c r="G79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="226"/>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>55</v>
-      </c>
-      <c r="D80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" t="s">
-        <v>13</v>
-      </c>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="225"/>
+      <c r="A81" s="2145"/>
       <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="235"/>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
         <v>66</v>
       </c>
-      <c r="D81" t="s">
-        <v>128</v>
-      </c>
-      <c r="E81" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="224"/>
-      <c r="B82" t="s">
-        <v>11</v>
+      <c r="D82" t="s">
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="F82" t="s">
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="223"/>
+      <c r="A83" s="234"/>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" t="s">
+        <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="105"/>
-      <c r="B84" s="106"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="109"/>
-      <c r="F84" s="110"/>
-      <c r="G84" s="111"/>
-      <c r="H84" s="112"/>
+      <c r="A84" s="233"/>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="B85" s="114"/>
-      <c r="C85" s="115"/>
-      <c r="D85" s="116"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="119"/>
-      <c r="H85" s="120"/>
+      <c r="A85" s="232"/>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="2049"/>
+      <c r="A86" s="231"/>
       <c r="B86" t="s">
         <v>3</v>
       </c>
@@ -6328,81 +6402,273 @@
         <v>66</v>
       </c>
       <c r="D86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="237"/>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" t="s">
+        <v>41</v>
+      </c>
+      <c r="G87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="230"/>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="229"/>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="228"/>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="227"/>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="226"/>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="225"/>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" t="s">
+        <v>132</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2161"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="114"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="118"/>
+      <c r="G95" s="119"/>
+      <c r="H95" s="120"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2162"/>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2049"/>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" t="s">
         <v>123</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E97" t="s">
         <v>68</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F97" t="s">
         <v>13</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G97" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="121" t="s">
+    <row r="98">
+      <c r="A98" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="122" t="s">
+      <c r="B98" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="123" t="s">
+      <c r="C98" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="124" t="s">
+      <c r="D98" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="125" t="s">
+      <c r="E98" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="126" t="s">
+      <c r="F98" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="127" t="s">
+      <c r="G98" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="H87" s="128"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="129"/>
-      <c r="B88" s="130"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="132"/>
-      <c r="E88" s="133"/>
-      <c r="F88" s="134"/>
-      <c r="G88" s="135"/>
-      <c r="H88" s="136"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="137"/>
-      <c r="B89" s="138"/>
-      <c r="C89" s="139"/>
-      <c r="D89" s="140"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="142"/>
-      <c r="G89" s="143"/>
-      <c r="H89" s="144"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="145"/>
-      <c r="B90" s="146"/>
-      <c r="C90" s="147"/>
-      <c r="D90" s="148"/>
-      <c r="E90" s="149"/>
-      <c r="F90" s="150"/>
-      <c r="G90" s="151"/>
-      <c r="H90" s="152"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="153"/>
-      <c r="B91" s="154"/>
-      <c r="C91" s="155"/>
-      <c r="D91" s="156"/>
-      <c r="E91" s="157"/>
-      <c r="F91" s="158"/>
-      <c r="G91" s="159"/>
-      <c r="H91" s="160"/>
+      <c r="H98" s="128"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="129"/>
+      <c r="B99" s="130"/>
+      <c r="C99" s="131"/>
+      <c r="D99" s="132"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="134"/>
+      <c r="G99" s="135"/>
+      <c r="H99" s="136"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="137"/>
+      <c r="B100" s="138"/>
+      <c r="C100" s="139"/>
+      <c r="D100" s="140"/>
+      <c r="E100" s="141"/>
+      <c r="F100" s="142"/>
+      <c r="G100" s="143"/>
+      <c r="H100" s="144"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="145"/>
+      <c r="B101" s="146"/>
+      <c r="C101" s="147"/>
+      <c r="D101" s="148"/>
+      <c r="E101" s="149"/>
+      <c r="F101" s="150"/>
+      <c r="G101" s="151"/>
+      <c r="H101" s="152"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="153"/>
+      <c r="B102" s="154"/>
+      <c r="C102" s="155"/>
+      <c r="D102" s="156"/>
+      <c r="E102" s="157"/>
+      <c r="F102" s="158"/>
+      <c r="G102" s="159"/>
+      <c r="H102" s="160"/>
     </row>
   </sheetData>
 </worksheet>
